--- a/config_ios提审/permission_server_config.xlsx
+++ b/config_ios提审/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_ios提审\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_ios提审\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6072,34 +6072,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D捕鱼测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（免费玩家、小额付费玩家）</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>新人消消乐红包（屏蔽所有渠道非新玩家）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6468,6 +6440,9 @@
   <si>
     <t>tag_newplayer_buy_activation_gift</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王宝藏测试（免费玩家、小额付费玩家）</t>
   </si>
 </sst>
 </file>
@@ -7191,7 +7166,7 @@
   <dimension ref="A1:Q333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
@@ -10184,7 +10159,7 @@
         <v>440</v>
       </c>
       <c r="B244" s="34" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C244" s="18">
         <v>149</v>
@@ -10461,7 +10436,7 @@
         <v>1270</v>
       </c>
       <c r="B282" s="27" t="s">
-        <v>1304</v>
+        <v>1412</v>
       </c>
       <c r="C282" s="9">
         <v>177</v>
@@ -10491,90 +10466,90 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="27" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B287" s="27" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="27" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B288" s="27" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="27" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B289" s="27" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="27" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B290" s="27" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="27" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B291" s="27" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="27" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B292" s="27" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="27" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B293" s="27" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="27" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B294" s="27" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="27" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B295" s="27" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="27" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B296" s="27" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="27" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B297" s="27" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -10583,90 +10558,90 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="27" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B299" s="27" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="27" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B300" s="27" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="27" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B301" s="27" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="27" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B302" s="27" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="27" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B303" s="27" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="27" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B304" s="27" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="27" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B305" s="27" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="27" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B306" s="27" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="27" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B307" s="27" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="27" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B308" s="27" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="27" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B309" s="27" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C309" s="54"/>
     </row>
@@ -10675,10 +10650,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="27" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B311" s="27" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C311" s="54">
         <v>22</v>
@@ -10686,91 +10661,91 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="27" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B312" s="27" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C312" s="54"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="27" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B313" s="27" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="27" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B314" s="27" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="27" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B315" s="27" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="27" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B316" s="27" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="27" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B317" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="27" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B318" s="27" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="27" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B319" s="27" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="27" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B320" s="27" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="27" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B321" s="27" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="27" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B323" s="27" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C323" s="54">
         <v>24</v>
@@ -10778,83 +10753,83 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="27" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B324" s="27" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C324" s="54"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="27" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B325" s="27" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="27" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B326" s="27" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="27" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B327" s="27" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="27" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B328" s="27" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="27" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B329" s="27" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="27" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B330" s="27" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B331" s="27" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B332" s="27" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="27" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B333" s="27" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
   </sheetData>
@@ -10869,7 +10844,7 @@
   <dimension ref="A1:O249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
@@ -11187,7 +11162,7 @@
         <v>500</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -11227,7 +11202,7 @@
         <v>503</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -11267,7 +11242,7 @@
         <v>506</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
@@ -11303,7 +11278,7 @@
         <v>507</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
@@ -11339,7 +11314,7 @@
         <v>509</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -11375,7 +11350,7 @@
         <v>510</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
@@ -11411,7 +11386,7 @@
         <v>511</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
@@ -11447,7 +11422,7 @@
         <v>513</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
@@ -11483,7 +11458,7 @@
         <v>514</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -11519,7 +11494,7 @@
         <v>515</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -11555,7 +11530,7 @@
         <v>517</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -11591,7 +11566,7 @@
         <v>518</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -11696,7 +11671,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>520</v>
@@ -11732,10 +11707,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
@@ -11768,10 +11743,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
@@ -11804,10 +11779,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
@@ -18834,7 +18809,7 @@
         <v>1</v>
       </c>
       <c r="C233" s="73" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D233" s="72" t="s">
         <v>1209</v>
@@ -19417,10 +19392,10 @@
   <dimension ref="A1:I556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E522" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D98" sqref="D98"/>
+      <selection pane="bottomRight" activeCell="E559" sqref="E559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21709,7 +21684,7 @@
         <v>882</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E98" s="8">
         <v>2</v>
